--- a/house_listings.xlsx
+++ b/house_listings.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:V12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,60 +461,85 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>state</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>zipcode</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>latitude</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>longitude</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bedrooms</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bathrooms</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>yearBuilt</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>pageViewCount</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>favoriteCount</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>daysOnZillow</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hdpUrl</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>agentName</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>agentPhoneNumber</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>brokerName</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>brokerPhoneNumber</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>lastUpdated</t>
         </is>
@@ -522,7 +547,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>39439879</v>
+        <v>39916937</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -530,7 +555,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1875000</v>
+        <v>1595000</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -539,57 +564,78 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>56 Midwood Terrace</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>40.74876</v>
-      </c>
-      <c r="G2" t="n">
-        <v>-74.42061</v>
-      </c>
-      <c r="H2" t="n">
+          <t>1 Broadway Road</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Warren</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>NJ</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>07059</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>40.62791</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-74.51606</v>
+      </c>
+      <c r="K2" t="n">
         <v>4</v>
       </c>
-      <c r="I2" t="n">
-        <v>6</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1974</v>
-      </c>
-      <c r="K2" t="n">
-        <v>10</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>/homedetails/56-Midwood-Ter-Madison-NJ-07940/39439879_zpid/</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Karen Torrente</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Coldwell Banker Realty</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>973-635-8200</t>
-        </is>
+      <c r="L2" t="n">
+        <v>5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1997</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2181</v>
+      </c>
+      <c r="O2" t="n">
+        <v>103</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2024-02-15 04:36:59</t>
+          <t>/homedetails/1-Broadway-Rd-Warren-NJ-07059/39916937_zpid/</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Robert B Oquist</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Re/Max Achievers</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>908-522-9444</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>2024-02-19 07:09:00</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>339620823</v>
+        <v>2057312640</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -597,7 +643,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2199000</v>
+        <v>875000</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -606,57 +652,82 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>316 Hillside Avenue</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>40.726414</v>
-      </c>
-      <c r="G3" t="n">
-        <v>-74.39384</v>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
+          <t>190 Route 33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Freehold</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>NJ</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>07728</t>
+        </is>
       </c>
       <c r="I3" t="n">
-        <v>7</v>
+        <v>40.256577</v>
       </c>
       <c r="J3" t="n">
-        <v>2023</v>
+        <v>-74.3078</v>
       </c>
       <c r="K3" t="n">
-        <v>41</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>/homedetails/316-Hillside-Ave-Chatham-NJ-07928/339620823_zpid/</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>Karen Torrente</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Coldwell Banker Realty</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>973-635-8200</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1909</v>
+      </c>
+      <c r="N3" t="n">
+        <v>431</v>
+      </c>
+      <c r="O3" t="n">
+        <v>8</v>
+      </c>
+      <c r="P3" t="n">
+        <v>260</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2024-02-20 03:17:50</t>
+          <t>/homedetails/190-Route-33-Freehold-NJ-07728/2057312640_zpid/</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Toni Goncalves</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>908-578-2324</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>RE/MAX Achievers</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>908-522-9444</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>2024-01-16 11:36:50</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>339620887</v>
+        <v>201788522</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -664,62 +735,743 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2199000</v>
+        <v>289900</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>LOT</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>63 Guinea Hollow Rd</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Lebanon</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>NJ</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>08833</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>40.69899</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-74.81223</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
+        <v>1789</v>
+      </c>
+      <c r="O4" t="n">
+        <v>90</v>
+      </c>
+      <c r="P4" t="n">
+        <v>529</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>/homedetails/63-Guinea-Hollow-Rd-Lebanon-NJ-08833/201788522_zpid/</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Toni Ann Goncalves</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>908-522-9444</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Re/Max Achievers</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>908-522-9444</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>2023-12-06 05:19:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>38726564</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>FOR_RENT</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1975</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>APARTMENT</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>410 Mechanic St</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>NJ</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>07050</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>40.77033</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-74.23614000000001</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1879</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>/homedetails/410-Mechanic-St-Orange-NJ-07050/38726564_zpid/</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Erika Almonte</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>201-396-4925</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>RE/MAX ACHIEVERS</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>201-396-4925</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2052976339</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>FOR_RENT</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3300</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>TOWNHOUSE</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>200 2nd St</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Newark</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>NJ</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>07107</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>40.75294</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-74.18621</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>/homedetails/200-2nd-St-Newark-NJ-07107/2052976339_zpid/</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Toni Ann Goncalves</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>908-578-2324</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Re/MAX Achievers</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>908-578-2324</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>39222784</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>FOR_RENT</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>17000</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>SINGLE_FAMILY</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>320 Hillside Avenue</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>40.726284</v>
-      </c>
-      <c r="G4" t="n">
-        <v>-74.39398</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2023</v>
-      </c>
-      <c r="K4" t="n">
-        <v>41</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>/homedetails/320-Hillside-Ave-Chatham-NJ-07928/339620887_zpid/</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Karen Torrente</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Coldwell Banker Realty</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>973-635-8200</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>2024-02-20 03:15:01</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>320 Lincoln Ave</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avon By The Sea</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>NJ</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>07717</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>40.19058</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-74.01732</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1925</v>
+      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>/homedetails/320-Lincoln-Ave-Avon-By-The-Sea-NJ-07717/39222784_zpid/</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Teresa Toohey</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>732-766-1463</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>RE/MAX Achievers</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>732-766-1463</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>39685753</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>FOR_RENT</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>18000</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SINGLE_FAMILY</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1216 Bay Ave</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Point Pleasant</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>NJ</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>08742</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>40.08061</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-74.05418</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1916</v>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>/homedetails/1216-Bay-Ave-Point-Pleasant-NJ-08742/39685753_zpid/</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Robert Oquist</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>201-563-2980</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>RE/MAX Achievers</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>201-563-2980</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>39222906</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>FOR_RENT</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>26000</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SINGLE_FAMILY</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>518 Washington Ave</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Avon By The Sea</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>NJ</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>07717</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>40.189766</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-74.02193</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1949</v>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>/homedetails/518-Washington-Ave-Avon-By-The-Sea-NJ-07717/39222906_zpid/</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Teresa Toohey</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>732-766-1463</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>RE/MAX Achievers</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>732-766-1463</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>39222909</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>FOR_RENT</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>25000</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SINGLE_FAMILY</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>510 Washington Ave</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Avon By The Sea</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>NJ</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>07717</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>40.189842</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-74.02128</v>
+      </c>
+      <c r="K10" t="n">
+        <v>5</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1929</v>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>/homedetails/510-Washington-Ave-Avon-By-The-Sea-NJ-07717/39222909_zpid/</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Teresa Toohey</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>732-766-1463</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>RE/MAX Achievers</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>732-766-1463</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>40080944</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>FOR_RENT</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2200</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>MULTI_FAMILY</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>3 Tuxedo Pl</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Vauxhall</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>NJ</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>07088</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>40.71867</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-74.2884</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1971</v>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="n">
+        <v>109</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>/homedetails/3-Tuxedo-Pl-Vauxhall-NJ-07088/40080944_zpid/</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Roberta Jasper</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>RE/MAX ACHIEVERS</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>39222940</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>FOR_RENT</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>SINGLE_FAMILY</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>105 5th Ave</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Avon By The Sea</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>NJ</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>07717</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>40.18891</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-74.02108</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1934</v>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="n">
+        <v>203</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>/homedetails/105-5th-Ave-Avon-By-The-Sea-NJ-07717/39222940_zpid/</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Teresa Toohey</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>732-766-1463</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>RE/MAX Achievers</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>732-766-1463</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
